--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="2730" windowWidth="15090" xWindow="0" yWindow="2445"/>
+    <workbookView windowHeight="3645" windowWidth="15090" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" r:id="rId1" sheetId="1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Sno</t>
   </si>
@@ -66,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +117,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -155,10 +185,14 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -460,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,36 +505,48 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C4" t="s" s="10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -512,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +585,7 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -550,7 +596,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -561,7 +607,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
